--- a/TimeSheets/Time Log template_SEE.xlsx
+++ b/TimeSheets/Time Log template_SEE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KG3UNFORGN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaleb\Documents\KalebSeniorProject\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Created content box for calculator to go into.</t>
+  </si>
+  <si>
+    <t>6:50pm</t>
+  </si>
+  <si>
+    <t>Meeting</t>
   </si>
 </sst>
 </file>
@@ -202,9 +208,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,7 +536,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,14 +550,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -573,23 +579,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9">
+    <row r="3" spans="1:6" s="11" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>41915</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>60</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -646,7 +652,7 @@
       <c r="D6" s="6">
         <v>180</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -666,7 +672,7 @@
       <c r="D7" s="6">
         <v>150</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -674,11 +680,21 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="2">
+        <v>41933</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">

--- a/TimeSheets/Time Log template_SEE.xlsx
+++ b/TimeSheets/Time Log template_SEE.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -106,6 +106,27 @@
   </si>
   <si>
     <t>Meeting</t>
+  </si>
+  <si>
+    <t>Meeting with Team</t>
+  </si>
+  <si>
+    <t>9:50pm</t>
+  </si>
+  <si>
+    <t>Finished Bones, Uploaded to Repo</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>12:00am</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Wrote Overview for interation 1</t>
   </si>
 </sst>
 </file>
@@ -535,8 +556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,23 +716,49 @@
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5"/>
+      <c r="A9" s="2">
+        <v>41934</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5"/>
+      <c r="A10" s="2">
+        <v>41935</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="6">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>

--- a/TimeSheets/Time Log template_SEE.xlsx
+++ b/TimeSheets/Time Log template_SEE.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Date</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>Wrote Overview for interation 1</t>
+  </si>
+  <si>
+    <t>7:00pm</t>
+  </si>
+  <si>
+    <t>8:00am</t>
+  </si>
+  <si>
+    <t>Created login, register buttons, modal and functionality</t>
   </si>
 </sst>
 </file>
@@ -556,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,12 +770,24 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
+      <c r="A11" s="2">
+        <v>41954</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
+        <v>720</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/TimeSheets/Time Log template_SEE.xlsx
+++ b/TimeSheets/Time Log template_SEE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kaleb\Documents\KalebSeniorProject\TimeSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KG3UNFORGN\Documents\KalebSeniorProject\TimeSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$13</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +139,15 @@
   </si>
   <si>
     <t>Created login, register buttons, modal and functionality</t>
+  </si>
+  <si>
+    <t>7:00PM</t>
+  </si>
+  <si>
+    <t>10:00PM</t>
+  </si>
+  <si>
+    <t>SEE Meeting</t>
   </si>
 </sst>
 </file>
@@ -565,13 +577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
@@ -790,20 +802,44 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5"/>
+      <c r="A12" s="2">
+        <v>41955</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6">
+        <v>120</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
+      <c r="A13" s="2">
+        <v>41961</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6">
+        <v>120</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -942,7 +978,7 @@
       <formula1>"Front End Programming, Back End Programming, Meeting, Discussion, Documentation, Testing, Research"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
